--- a/AutomationTesting/Results/TestResults.xlsx
+++ b/AutomationTesting/Results/TestResults.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Karan kumar</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>comparingAllSections</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>juniorEngineersList</t>
@@ -186,12 +183,12 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -199,10 +196,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
